--- a/Spreadsheets/Ingredient Classes.xlsx
+++ b/Spreadsheets/Ingredient Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwin365-my.sharepoint.com/personal/faverog_uwindsor_ca/Documents/Recipe Management/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{4777EF41-9642-43A1-A4FE-12A1E83BD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B866FDA-887F-4B9B-8156-D2629DAABD80}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{4777EF41-9642-43A1-A4FE-12A1E83BD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3013471-D035-4870-85A8-7AC0B9402F12}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AA8D66BE-3F00-4B5D-8A7F-6DB7D6C098B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Spices</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Frozen Pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">Lipton Chicken Noodle Soup </t>
-  </si>
-  <si>
     <t>Romaine Lettuce</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Lipton Envelope</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B5B602-91CC-48AC-9989-B07C157E89FF}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -625,7 +631,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -697,7 +703,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -705,7 +711,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -745,7 +751,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -761,7 +767,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -777,7 +783,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -785,31 +791,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
+      <c r="A31" t="s">
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
+      <c r="A32" t="s">
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -817,42 +823,58 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
+      <c r="B40" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
